--- a/biology/Histoire de la zoologie et de la botanique/Johann_Jacob_Heckel/Johann_Jacob_Heckel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Jacob_Heckel/Johann_Jacob_Heckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Jacob Heckel est un zoologiste autrichien, né le 23 janvier 1790 à Mannheim et mort le 1er mars 1857 à Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un chef d’orchestre et professeur de musique de Mannheim. La famille s’installe en 1799 à Gumpoldskirchen en Autriche, au sud de Vienne, dans une petite propriété. Après ses études et, à la mort de son père, il reprend l'exploitation familiale. Mais, il est surtout intéressé par l'histoire naturelle, particulièrement la botanique et l'ornithologie. Il est un brillant dessinateur et un taxidermiste si talentueux que ses amis disent qu'il possède deux mains droites.
 C'est en étudiant une collection de peaux d'oiseaux qu'il rencontre Josef Natterer (1786-1852), conservateur des collections impériales à Vienne et frère de Johann Natterer (1787-1843), naturaliste et explorateur du Brésil. Cette rencontre le décide à se consacrer à l'histoire naturelle.
